--- a/Blazor環境構築.xlsx
+++ b/Blazor環境構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FumiyaMurakami\source\repos\BlazorBmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A55B44B-E4C1-422D-8397-3687E1A85652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EB0E05-6FDE-4002-8E06-7A91D9A2C37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="17009" windowHeight="9810" xr2:uid="{87672991-FB74-4021-9B87-5275B82A2522}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{87672991-FB74-4021-9B87-5275B82A2522}"/>
   </bookViews>
   <sheets>
     <sheet name="Vsual Stadio" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>https://visualstudio.microsoft.com/ja/free-developer-offers/</t>
     <phoneticPr fontId="1"/>
@@ -166,7 +166,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>e</t>
+    <t>https://learn.microsoft.com/ja-jp/sql/ssms/download-sql-server-management-studio-ssms?view=sql-server-ver15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インストールに失敗する場合は、一度端末再起動を行うとよい。</t>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイキドウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.microsoft.com/ja-jp/sql-server/sql-server-downloads</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -266,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -286,6 +312,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,6 +980,275 @@
         <a:xfrm>
           <a:off x="0" y="15563850"/>
           <a:ext cx="5615029" cy="3348062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>450226</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>258498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="グラフィカル ユーザー インターフェイス, テキスト, アプリケーション, メール&#10;&#10;自動的に生成された説明">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA9ECDA-46F0-05CC-F47C-33E54C20EF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="419100"/>
+          <a:ext cx="18281026" cy="9478698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>588817</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107373</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC90BC1-19D4-463C-9F4E-1DF47529252D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4745181" y="6757555"/>
+          <a:ext cx="5074228" cy="464127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>251065</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>280022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3" descr="グラフィカル ユーザー インターフェイス, アプリケーション&#10;&#10;自動的に生成された説明">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B2ADF0C-97AD-1147-BC4B-97941B3A41C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10390909"/>
+          <a:ext cx="18261974" cy="8592749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121227</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348EC1E1-3705-430E-9BD6-977E827C82FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10945091" y="16729364"/>
+          <a:ext cx="2337954" cy="464127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>563117</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>310043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70058251-C680-F3D1-F561-B7BE77D6734C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19119273"/>
+          <a:ext cx="8183117" cy="6544588"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1258,18 +1559,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32E45D08-5F26-42DD-87D0-91F6D877E15A}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
-    </sheetView>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="57.75" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:21" ht="58.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="36" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:21" ht="35.25" x14ac:dyDescent="0.4">
       <c r="U10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1289,9 +1588,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="29.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" ht="30" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1310,22 +1609,22 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="32.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="33" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -1341,61 +1640,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4AB715-7C39-4C47-AED8-FEF314846950}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="32.25" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="33" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C37" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C38" s="6" t="s">
         <v>15</v>
       </c>
@@ -1409,19 +1706,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD55147-A31F-4346-A4DB-B79A8BFBD2BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="33" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.7">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB19" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{5FF1FCF9-89EB-484A-9C0C-F0842DEC4EC5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>